--- a/PLANNNCK/Data/SPRINT1/Login_TestSuite.xlsx
+++ b/PLANNNCK/Data/SPRINT1/Login_TestSuite.xlsx
@@ -14333,8 +14333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
